--- a/biology/Botanique/Callistemon_viminalis/Callistemon_viminalis.xlsx
+++ b/biology/Botanique/Callistemon_viminalis/Callistemon_viminalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callistemon viminalis également connu sous le nom de Callistemon pleureur est un arbuste ou un petit arbre de la famille des Myrtaceae. Il est originaire des États de la Nouvelle-Galles du Sud et du Queensland en Australie, où il pousse souvent le long des cours d'eau.
 Il peut atteindre 8 mètres de hauteur et a des branches pendantes avec des feuilles de 3 à 7 cm de long et de 3 à 7 mm de large. Les fleurs d'un rouge vif font 4 à 10 cm de longueur et environ 3 à 6 cm de diamètre apparaissent entre le printemps et l'été.
